--- a/nmadb/479999.xlsx
+++ b/nmadb/479999.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7155"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
   <si>
     <t>Treatments</t>
   </si>
@@ -395,7 +395,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="14">
     <font>
       <sz val="11"/>
@@ -954,243 +954,243 @@
     </xf>
   </cellXfs>
   <cellStyles count="238">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="211" builtinId="8"/>
+    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1207,7 +1207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1281,7 +1281,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1316,7 +1315,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1492,17 +1490,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P12" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" style="27" bestFit="1" customWidth="1"/>
@@ -1677,27 +1675,21 @@
       <c r="E4" s="27">
         <v>2</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="F4" s="28"/>
       <c r="G4" s="26">
         <v>192.8</v>
       </c>
       <c r="H4" s="27">
         <v>3</v>
       </c>
-      <c r="I4" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="I4" s="28"/>
       <c r="J4" s="28">
         <v>193.7</v>
       </c>
       <c r="K4" s="26">
         <v>5</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="L4" s="28"/>
       <c r="M4" s="26">
         <v>190.1</v>
       </c>
@@ -1707,9 +1699,7 @@
       <c r="O4" s="26">
         <v>194.6</v>
       </c>
-      <c r="P4" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="P4" s="28"/>
       <c r="Q4" s="5"/>
       <c r="S4" s="16"/>
       <c r="T4" s="9">
@@ -2021,18 +2011,14 @@
       <c r="E11" s="27">
         <v>2</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="F11" s="28"/>
       <c r="G11" s="26">
         <v>592.79999999999995</v>
       </c>
       <c r="H11" s="27">
         <v>12</v>
       </c>
-      <c r="I11" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="I11" s="28"/>
       <c r="J11" s="26">
         <v>596.5</v>
       </c>
@@ -2064,18 +2050,14 @@
       <c r="E12" s="27">
         <v>2</v>
       </c>
-      <c r="F12" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="F12" s="28"/>
       <c r="G12" s="26">
         <v>104.8</v>
       </c>
       <c r="H12" s="27">
         <v>12</v>
       </c>
-      <c r="I12" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="I12" s="28"/>
       <c r="J12" s="26">
         <v>104.1</v>
       </c>
@@ -2508,18 +2490,14 @@
       <c r="E23" s="27">
         <v>3</v>
       </c>
-      <c r="F23" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="F23" s="28"/>
       <c r="G23" s="26">
         <v>101.3</v>
       </c>
       <c r="H23" s="27">
         <v>5</v>
       </c>
-      <c r="I23" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="I23" s="28"/>
       <c r="J23" s="26">
         <v>99.2</v>
       </c>
@@ -2544,18 +2522,14 @@
       <c r="E24" s="27">
         <v>3</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="F24" s="28"/>
       <c r="G24" s="26">
         <v>104.1</v>
       </c>
       <c r="H24" s="27">
         <v>5</v>
       </c>
-      <c r="I24" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="I24" s="28"/>
       <c r="J24" s="26">
         <v>108.5</v>
       </c>
@@ -2702,18 +2676,14 @@
       <c r="E28" s="27">
         <v>3</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="F28" s="28"/>
       <c r="G28" s="26">
         <v>107.8</v>
       </c>
       <c r="H28" s="27">
         <v>12</v>
       </c>
-      <c r="I28" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="I28" s="28"/>
       <c r="J28" s="26">
         <v>212.3</v>
       </c>
@@ -2869,9 +2839,7 @@
       <c r="K32" s="26">
         <v>1</v>
       </c>
-      <c r="L32" s="26" t="s">
-        <v>78</v>
-      </c>
+      <c r="L32" s="26"/>
       <c r="M32" s="26">
         <v>189.5</v>
       </c>
@@ -2892,9 +2860,7 @@
       <c r="E33" s="27">
         <v>3</v>
       </c>
-      <c r="F33" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="F33" s="28"/>
       <c r="G33" s="26">
         <v>855</v>
       </c>
@@ -2910,9 +2876,7 @@
       <c r="K33" s="26">
         <v>8</v>
       </c>
-      <c r="L33" s="26" t="s">
-        <v>78</v>
-      </c>
+      <c r="L33" s="26"/>
       <c r="M33" s="26">
         <v>864</v>
       </c>
@@ -3084,18 +3048,14 @@
       <c r="E38" s="27">
         <v>3</v>
       </c>
-      <c r="F38" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="F38" s="28"/>
       <c r="G38" s="26">
         <v>120</v>
       </c>
       <c r="H38" s="27">
         <v>7</v>
       </c>
-      <c r="I38" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="I38" s="28"/>
       <c r="J38" s="26">
         <v>523.5</v>
       </c>
@@ -3129,9 +3089,7 @@
       <c r="H39" s="27">
         <v>7</v>
       </c>
-      <c r="I39" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="I39" s="28"/>
       <c r="J39" s="26">
         <v>76.400000000000006</v>
       </c>
@@ -3783,9 +3741,7 @@
       <c r="H57" s="27">
         <v>8</v>
       </c>
-      <c r="I57" s="28" t="s">
-        <v>78</v>
-      </c>
+      <c r="I57" s="28"/>
       <c r="J57" s="26">
         <v>141.69999999999999</v>
       </c>
@@ -5229,12 +5185,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -5246,12 +5202,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
